--- a/Выполенные операции.xlsx
+++ b/Выполенные операции.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\Web_programming\rms_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\Web_programming\rms_new\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E85A5146-3F33-42D1-A95F-8FBFC240B6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60633F07-B9FC-477A-B0ED-A6C54C4272F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{14451E45-6F4F-4741-A65E-A9A1D39FAA11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14451E45-6F4F-4741-A65E-A9A1D39FAA11}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Delivery</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>удаление документа</t>
+  </si>
+  <si>
+    <t>Отображает изменения в последующих документах(delivery, transfer, sale)</t>
+  </si>
+  <si>
+    <t>Отображает изменения в последующих документах(delivery, transfer, sale, cash_in)</t>
+  </si>
+  <si>
+    <t>Sale_Input_Cash</t>
+  </si>
+  <si>
+    <t>удаление при любой дате</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Постмотреть AV_pricese и Cashback</t>
   </si>
 </sst>
 </file>
@@ -401,51 +419,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818080E7-66B1-441A-A66E-780A21D35C62}">
-  <dimension ref="B1:D5"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" customWidth="1"/>
+    <col min="4" max="4" width="80.7109375" customWidth="1"/>
+    <col min="5" max="5" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Выполенные операции.xlsx
+++ b/Выполенные операции.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\Web_programming\rms_new\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60633F07-B9FC-477A-B0ED-A6C54C4272F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E226B0C0-2DEF-4968-923C-B5F0CFCD4B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14451E45-6F4F-4741-A65E-A9A1D39FAA11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Delivery</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Постмотреть AV_pricese и Cashback</t>
+  </si>
+  <si>
+    <t>Sale_Input_Card</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818080E7-66B1-441A-A66E-780A21D35C62}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +508,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Выполенные операции.xlsx
+++ b/Выполенные операции.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\Web_programming\rms_new\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E226B0C0-2DEF-4968-923C-B5F0CFCD4B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7630FF4E-B402-4C66-9607-FC1B19BD1901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14451E45-6F4F-4741-A65E-A9A1D39FAA11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>Delivery</t>
   </si>
@@ -70,6 +70,27 @@
   </si>
   <si>
     <t>Sale_Input_Card</t>
+  </si>
+  <si>
+    <t>Sale_Input_Credit</t>
+  </si>
+  <si>
+    <t>Sale_Input_Complex</t>
+  </si>
+  <si>
+    <t>Recognition</t>
+  </si>
+  <si>
+    <t>Посмотреть, какую цену вставлять: оптовую, розничную или средневзвешенную</t>
+  </si>
+  <si>
+    <t>SignOff</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>не сдалано возврат ден. Средств. Не увязан документ с документов 'Продажа'</t>
   </si>
 </sst>
 </file>
@@ -422,19 +443,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818080E7-66B1-441A-A66E-780A21D35C62}">
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="80.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.28515625" customWidth="1"/>
+    <col min="5" max="5" width="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
@@ -521,7 +542,129 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Выполенные операции.xlsx
+++ b/Выполенные операции.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\Web_programming\rms_new\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7630FF4E-B402-4C66-9607-FC1B19BD1901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BABDC1-C1E3-4D91-85C9-2255B1833977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14451E45-6F4F-4741-A65E-A9A1D39FAA11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{14451E45-6F4F-4741-A65E-A9A1D39FAA11}"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>Delivery</t>
   </si>
@@ -66,9 +67,6 @@
     <t>Комментарий</t>
   </si>
   <si>
-    <t>Постмотреть AV_pricese и Cashback</t>
-  </si>
-  <si>
     <t>Sale_Input_Card</t>
   </si>
   <si>
@@ -90,14 +88,47 @@
     <t>Return</t>
   </si>
   <si>
-    <t>не сдалано возврат ден. Средств. Не увязан документ с документов 'Продажа'</t>
+    <t>Документ</t>
+  </si>
+  <si>
+    <t>Действие</t>
+  </si>
+  <si>
+    <t>Последствия</t>
+  </si>
+  <si>
+    <t>При перемещении на розничный склад указывается розничная цена, которая хранится в RemainderCurrent. Если в последующем Перемещении розничная цена отличается от той, что хранится в RemainderCurrent, то цена в RemainderCurrent изменяетя на цену, введенную в поледнем перемещении.</t>
+  </si>
+  <si>
+    <t>Происходит на оптовый склад по оптовым ценам. При проведении документа корректируется Av_prices, которая отражает общее кол-во на всех складах и средневзвешенную оптовую цену, которая зависит от оптовых цен. Впоследствии эта средневзвешенная цена используется для подсчета маржи.</t>
+  </si>
+  <si>
+    <t>Постмотреть AV_prices и Cashback</t>
+  </si>
+  <si>
+    <t>Revaluation</t>
+  </si>
+  <si>
+    <t>создание при текущей дате</t>
+  </si>
+  <si>
+    <t xml:space="preserve">удаление </t>
+  </si>
+  <si>
+    <t>Изменяет розничую цену в RemainderCurrent для связки IMEI и SHOP и создает запись в RemainerHistory. Проводится только текущим временем. Не проводится задним числом, так как при проведении задним числом нужно будет изменять документы Продажа и остатки в Кассе (В случае со сложной продажей, непонятно, как изменять остатки по кредиту, картам и наличным в кассе).</t>
+  </si>
+  <si>
+    <t>Не увязан документов 'Продажа', по которому товар был продан.</t>
+  </si>
+  <si>
+    <t>изменение докумкнта</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +137,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,8 +181,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,231 +515,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818080E7-66B1-441A-A66E-780A21D35C62}">
-  <dimension ref="B1:E30"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="80.7109375" customWidth="1"/>
-    <col min="5" max="5" width="79" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="78.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="123.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>17</v>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5868BBB8-A5BE-49C7-AFBE-03AF03581B68}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>